--- a/pages/files/blog_data_2024.xlsx
+++ b/pages/files/blog_data_2024.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TerenceA/Desktop/Performance_Bicycle/Promos/08_Aug/blog_search/blogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FE27C-F428-0843-AB87-6ECB40F13CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777A0A5-DAE8-9B47-8E60-2904664EB2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00A71A19-975D-7343-A70A-90039DDBF0CA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00A71A19-975D-7343-A70A-90039DDBF0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2087,7 +2088,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,29 +2130,29 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(K3,F2)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/repairs/Hero_03.jpg</v>
+        <f>CONCATENATE(K2,F2)</f>
+        <v>https://images.amain.com/images/contentpages/performancebike/D12_vs_Shimano/hero_image.jpg</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
       <c r="E2">
-        <v>601</v>
+        <v>1480</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.51051510715106E+34</v>
+        <v>278</v>
+      </c>
+      <c r="I2" t="s">
+        <v>280</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
         <v>282</v>
@@ -2159,29 +2160,29 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(K4,F3)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/spec_bike_comp/hero_image.jpg</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="E3">
-        <v>602</v>
+        <v>1476</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="I3" s="1">
-        <v>1.53361534315357E+74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
+        <v>1.4941287221497301E+64</v>
+      </c>
+      <c r="J3">
+        <v>2231</v>
       </c>
       <c r="K3" t="s">
         <v>282</v>
@@ -2189,29 +2190,29 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(K5,F4)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/winter_layering/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized_sl8/hero_image.jpg</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="E4">
-        <v>690</v>
+        <v>1475</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
+        <v>272</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.4941287222872399E+54</v>
+      </c>
+      <c r="J4">
+        <v>2231</v>
       </c>
       <c r="K4" t="s">
         <v>282</v>
@@ -2219,29 +2220,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(K6,F5)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/lights_promo/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/pearl_izumi_clothing/hero_image.jpg</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="E5">
-        <v>691</v>
+        <v>1474</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.5141176951769599E+104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5">
+        <v>1368</v>
       </c>
       <c r="K5" t="s">
         <v>282</v>
@@ -2249,29 +2250,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(K7,F6)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized/img/Angi-v2-Hero-ANGi_2000x980.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/castelli_jersey_guide/hero_image.jpg</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="E6">
-        <v>711</v>
+        <v>1473</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5010171961501801E+44</v>
+        <v>1.4982150242868701E+144</v>
       </c>
       <c r="J6">
-        <v>2231</v>
+        <v>3208</v>
       </c>
       <c r="K6" t="s">
         <v>282</v>
@@ -2279,29 +2280,29 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE(K8,F7)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized/img/BRD-3834-BodyGeometry-Hero-Retul.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/favorite_3d_saddles/hero_image_01.jpg</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="E7">
-        <v>712</v>
+        <v>1470</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="I7" s="1">
-        <v>1.71041710517111E+164</v>
-      </c>
-      <c r="J7">
-        <v>2231</v>
+        <v>1.5140152091521299E+54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>263</v>
       </c>
       <c r="K7" t="s">
         <v>282</v>
@@ -2309,26 +2310,26 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE(K9,F8)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/clipless/img/look-hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/3d_saddles/hero_image.jpg</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="E8">
-        <v>718</v>
+        <v>1466</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I8" s="1">
-        <v>1.51981520015201E+44</v>
+        <v>1.5140152091521299E+54</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -2339,26 +2340,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(K10,F9)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/road_tires/hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/understanding_saddle_rails/hero_image.jpg</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="E9">
-        <v>725</v>
+        <v>1465</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I9" s="1">
-        <v>1.5336153431535701E+29</v>
+        <v>1.5140152091521301E+99</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -2369,29 +2370,29 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE(K11,F10)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless_part_01/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/all_about_spec_saddles/hero_image.jpg</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="E10">
-        <v>726</v>
+        <v>1464</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="I10" s="1">
-        <v>1.53361534315357E+74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
+        <v>1.5140152091521299E+54</v>
+      </c>
+      <c r="J10">
+        <v>2231</v>
       </c>
       <c r="K10" t="s">
         <v>282</v>
@@ -2399,29 +2400,29 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE(K12,F11)</f>
-        <v>https://images.amain.com/images/sites/performancebike/contentPages/socks/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized_bike_tiers/hero_image.jpg</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="E11">
-        <v>755</v>
+        <v>1463</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.6982169841698501E+54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
+        <v>249</v>
+      </c>
+      <c r="I11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11">
+        <v>2231</v>
       </c>
       <c r="K11" t="s">
         <v>282</v>
@@ -2429,29 +2430,29 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(K13,F12)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/helmets/Hero_01_pb.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/why_specialized/hero_image.jpg</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="E12">
-        <v>761</v>
+        <v>1462</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.5010171961501799E+254</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
+        <v>245</v>
+      </c>
+      <c r="I12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12">
+        <v>2231</v>
       </c>
       <c r="K12" t="s">
         <v>282</v>
@@ -2459,26 +2460,26 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="B13" t="str">
         <f>CONCATENATE(K14,F13)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/chains/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/freehub_bodies/hero_image.jpg</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="E13">
-        <v>808</v>
+        <v>1451</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="I13" s="1">
-        <v>1.51641641617713E+114</v>
+        <v>1.5140165701657099E+119</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -2489,29 +2490,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="B14" t="str">
         <f>CONCATENATE(K15,F14)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/grips_tape/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/best_garmin_watches/hero.jpg</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="E14">
-        <v>811</v>
+        <v>1450</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="I14" s="1">
-        <v>165421654415140</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
+        <v>1.4831148421484301E+139</v>
+      </c>
+      <c r="J14">
+        <v>1155</v>
       </c>
       <c r="K14" t="s">
         <v>282</v>
@@ -2519,26 +2520,26 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="B15" t="str">
         <f>CONCATENATE(K16,F15)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/saddles/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/biking_at_night/hero_image.jpg</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="E15">
-        <v>831</v>
+        <v>1407</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="I15" s="1">
-        <v>1.52091521315212E+39</v>
+        <v>1.48311671415141E+114</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
@@ -2549,26 +2550,26 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="B16" t="str">
         <f>CONCATENATE(K17,F16)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/mtb_tires_pb/Hero_mtb.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/best_mini_pump/hero_image.jpg</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="E16">
-        <v>840</v>
+        <v>1406</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1">
-        <v>1.5336153431535101E+29</v>
+        <v>1.5104174761747699E+69</v>
       </c>
       <c r="J16" t="s">
         <v>9</v>
@@ -2579,29 +2580,29 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="B17" t="str">
         <f>CONCATENATE(K18,F17)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/shoes_and_pedals/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/shimano_part_weights/hero_image.jpg</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="E17">
-        <v>844</v>
+        <v>1405</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.51981520015202E+194</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
+        <v>229</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17">
+        <v>1468</v>
       </c>
       <c r="K17" t="s">
         <v>282</v>
@@ -2609,26 +2610,26 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="B18" t="str">
         <f>CONCATENATE(K19,F18)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/gravel_tires_pb/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/century_bike_check/hero_image.jpg</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="E18">
-        <v>850</v>
+        <v>1404</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="I18" s="1">
-        <v>1.5343153461534699E+24</v>
+        <v>1.51041510515107E+99</v>
       </c>
       <c r="J18" t="s">
         <v>9</v>
@@ -2639,26 +2640,26 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE(K20,F19)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/nutrition/Hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/First_Century_Training/hero_image.jpg</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="E19">
-        <v>859</v>
+        <v>1403</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="I19" s="1">
-        <v>1.4875148771487799E+74</v>
+        <v>1.4875148771487801E+49</v>
       </c>
       <c r="J19" t="s">
         <v>9</v>
@@ -2669,26 +2670,26 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE(K21,F20)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/summer_layering/Hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/First_Century_Mistakes/hero_image.jpg</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="E20">
-        <v>869</v>
+        <v>1402</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="I20" s="1">
-        <v>1.49821684314987E+94</v>
+        <v>1.4875148771487801E+49</v>
       </c>
       <c r="J20" t="s">
         <v>9</v>
@@ -2699,26 +2700,26 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B21" t="str">
         <f>CONCATENATE(K22,F21)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/spd_pedals_cleats/Hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/Gravel_Bike_for_Winter/hero_image.jpg</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="E21">
-        <v>876</v>
+        <v>1401</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="I21" s="1">
-        <v>1.5051150621716699E+234</v>
+        <v>1.5346153471534799E+39</v>
       </c>
       <c r="J21" t="s">
         <v>9</v>
@@ -2729,29 +2730,29 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="B22" t="str">
         <f>CONCATENATE(K23,F22)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/hammerhead/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/The_Science_of_Cold_Tires/hero_image.jpg</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="E22">
-        <v>881</v>
+        <v>1400</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="I22" s="1">
-        <v>1.48421484317667E+24</v>
-      </c>
-      <c r="J22">
-        <v>4214</v>
+        <v>1.53361534315357E+289</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
       </c>
       <c r="K22" t="s">
         <v>282</v>
@@ -2759,29 +2760,29 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="B23" t="str">
         <f>CONCATENATE(K24,F23)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized_gravel_tires/Hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/Gatorskin_Tubeless/hero_image.jpg</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="E23">
-        <v>884</v>
+        <v>1399</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="I23" s="1">
-        <v>1.53361534315351E+24</v>
+        <v>1.53361534315357E+39</v>
       </c>
       <c r="J23">
-        <v>2231</v>
+        <v>1046</v>
       </c>
       <c r="K23" t="s">
         <v>282</v>
@@ -2789,29 +2790,29 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B24" t="str">
         <f>CONCATENATE(K25,F24)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/Riding%20in%20a%20new%20area%20-%20By%20Claire/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/roval_road_wheels_guide/hero_image.jpg</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="E24">
-        <v>1084</v>
+        <v>1398</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="I24" s="1">
-        <v>1.48421484317667E+24</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
+        <v>1.51401657016571E+29</v>
+      </c>
+      <c r="J24">
+        <v>2231</v>
       </c>
       <c r="K24" t="s">
         <v>282</v>
@@ -2819,29 +2820,29 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="B25" t="str">
         <f>CONCATENATE(K26,F25)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/dyna_plug_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/roval_wheels_buyers_guide/hero_image.jpg</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="E25">
-        <v>1116</v>
+        <v>1397</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="I25" s="1">
-        <v>1.53361534315357E+134</v>
+        <v>1.51401657016571E+29</v>
       </c>
       <c r="J25">
-        <v>2129</v>
+        <v>2231</v>
       </c>
       <c r="K25" t="s">
         <v>282</v>
@@ -2849,29 +2850,29 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="B26" t="str">
         <f>CONCATENATE(K27,F26)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/dyna_plug_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/buyers_guide/hero_image_01.jpg</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="E26">
-        <v>1122</v>
+        <v>1396</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="I26" s="1">
-        <v>1.53361534315357E+134</v>
+        <v>1.5230168172745401E+69</v>
       </c>
       <c r="J26">
-        <v>2129</v>
+        <v>1509</v>
       </c>
       <c r="K26" t="s">
         <v>282</v>
@@ -2879,26 +2880,26 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="B27" t="str">
         <f>CONCATENATE(K28,F27)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/categories/tubeless_hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/nutrition_for_tahiti/hero_image.jpg</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="E27">
-        <v>1125</v>
+        <v>1395</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="I27" s="1">
-        <v>1.53361534315357E+99</v>
+        <v>1.48311487514877E+39</v>
       </c>
       <c r="J27" t="s">
         <v>9</v>
@@ -2909,29 +2910,29 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="B28" t="str">
         <f>CONCATENATE(K29,F28)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/packing_for_tahiti/hero_image.jpg</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="E28">
-        <v>1131</v>
+        <v>1394</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="I28" s="1">
-        <v>1.53361534315357E+134</v>
-      </c>
-      <c r="J28">
-        <v>2129</v>
+        <v>1.4931149321493299E+29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
       </c>
       <c r="K28" t="s">
         <v>282</v>
@@ -2939,26 +2940,26 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="B29" t="str">
         <f>CONCATENATE(K30,F29)</f>
-        <v>https://images.amain.com/images/contentpages/nashbar/bikepacking101/hero_clear.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_03/hero_image.jpg</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="E29">
-        <v>1159</v>
+        <v>1365</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="I29" s="1">
-        <v>1.6709167161671701E+104</v>
+        <v>1.5346153471534802E+79</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
@@ -2969,26 +2970,26 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="B30" t="str">
         <f>CONCATENATE(K31,F30)</f>
-        <v>https://images.amain.com/images/newsletter/2020-07-07/bikepacking2/touring.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_02/hero_image.jpg</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="E30">
-        <v>1160</v>
+        <v>1364</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="I30" s="1">
-        <v>1.6709167161671701E+104</v>
+        <v>1.53461534715348E+94</v>
       </c>
       <c r="J30" t="s">
         <v>9</v>
@@ -2999,26 +3000,26 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B31" t="str">
         <f>CONCATENATE(K32,F31)</f>
-        <v>https://images.amain.com/images/contentpages/nashbar/bikepacking101/nb_hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_01/hero_image.jpg</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="E31">
-        <v>1161</v>
+        <v>1363</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="I31" s="1">
-        <v>1.6709167161671701E+104</v>
+        <v>1.53461534715348E+94</v>
       </c>
       <c r="J31" t="s">
         <v>9</v>
@@ -3029,29 +3030,29 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="B32" t="str">
         <f>CONCATENATE(K33,F32)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/bike_packing/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized_diverge_str/diverge_str_hero_image.jpg</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="E32">
-        <v>1168</v>
+        <v>1359</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="I32" s="1">
-        <v>1.6709167161671701E+104</v>
-      </c>
-      <c r="J32" t="s">
-        <v>9</v>
+        <v>1.4941287222872499E+59</v>
+      </c>
+      <c r="J32">
+        <v>2231</v>
       </c>
       <c r="K32" t="s">
         <v>282</v>
@@ -3059,29 +3060,29 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="B33" t="str">
         <f>CONCATENATE(K34,F33)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/century_nutrition/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/bwr_build/hero_vid_image.jpg</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="E33">
-        <v>1178</v>
+        <v>1343</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.4875148771487801E+49</v>
-      </c>
-      <c r="J33" t="s">
-        <v>9</v>
+        <v>181</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33">
+        <v>1430</v>
       </c>
       <c r="K33" t="s">
         <v>282</v>
@@ -3089,29 +3090,29 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="B34" t="str">
         <f>CONCATENATE(K35,F34)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/roval_wheelset/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/bwr_build/hero_image.jpg</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="E34">
-        <v>1180</v>
+        <v>1342</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.6570165711657499E+24</v>
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
       </c>
       <c r="J34">
-        <v>2231</v>
+        <v>1430</v>
       </c>
       <c r="K34" t="s">
         <v>282</v>
@@ -3119,29 +3120,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="B35" t="str">
         <f>CONCATENATE(K36,F35)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/riding_in_heat/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/garmin_vs_hammerhead/hero_image.jpg</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="E35">
-        <v>1181</v>
+        <v>1339</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="I35" s="1">
-        <v>1.7426174271494001E+129</v>
+        <v>1.4842148431766699E+29</v>
       </c>
       <c r="J35" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="K35" t="s">
         <v>282</v>
@@ -3149,29 +3150,29 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B36" t="str">
         <f>CONCATENATE(K37,F36)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/best_hydration/banner_03.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/garmin_comparison/hero_image.jpg</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="E36">
-        <v>1184</v>
+        <v>1329</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I36" s="1">
-        <v>1.7426174291744099E+79</v>
+        <v>1.4842148431766699E+29</v>
       </c>
       <c r="J36">
-        <v>2680</v>
+        <v>1155</v>
       </c>
       <c r="K36" t="s">
         <v>282</v>
@@ -3179,29 +3180,29 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B37" t="str">
         <f>CONCATENATE(K38,F37)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/hammerhead_promo/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/winter_base_miles/hero_01.jpg</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E37">
-        <v>1186</v>
+        <v>1322</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.48421484317667E+24</v>
-      </c>
-      <c r="J37">
-        <v>4214</v>
+        <v>167</v>
+      </c>
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
       </c>
       <c r="K37" t="s">
         <v>282</v>
@@ -3209,26 +3210,23 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B38" t="str">
         <f>CONCATENATE(K39,F38)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/bags_vs_racks/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless/Hero_01.jpg</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="E38">
-        <v>1192</v>
+        <v>1317</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.4831167091671601E+184</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
         <v>9</v>
@@ -3239,26 +3237,26 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B39" t="str">
         <f>CONCATENATE(K40,F39)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/ryans_narrative_01/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/winter_gloves_for_gravel/hero_image.jpg</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E39">
-        <v>1198</v>
+        <v>1299</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="I39" s="1">
-        <v>1.6709167161671701E+104</v>
+        <v>1.6982169851702599E+49</v>
       </c>
       <c r="J39" t="s">
         <v>9</v>
@@ -3269,29 +3267,29 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B40" t="str">
         <f>CONCATENATE(K41,F40)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/pearl_izumi_promo/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/winter_gloves_for_road/hero_image.jpg</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E40">
-        <v>1202</v>
+        <v>1298</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="I40" s="1">
-        <v>1.67091498215024E+239</v>
-      </c>
-      <c r="J40">
-        <v>1368</v>
+        <v>1.6982169851702599E+49</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
       </c>
       <c r="K40" t="s">
         <v>282</v>
@@ -3299,26 +3297,26 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B41" t="str">
         <f>CONCATENATE(K42,F41)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/planning_a_route/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/staff_picks_saddle_bags/hero_image.jpg</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E41">
-        <v>1203</v>
+        <v>1297</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1.6709167161671699E+129</v>
+        <v>156</v>
+      </c>
+      <c r="I41" t="s">
+        <v>147</v>
       </c>
       <c r="J41" t="s">
         <v>9</v>
@@ -3329,26 +3327,29 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B42" t="str">
         <f>CONCATENATE(K43,F42)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/tools_of_the_tour/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/staff_winter_favorites/hero_image.jpg</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E42">
-        <v>1205</v>
+        <v>1293</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42">
-        <v>2231</v>
+        <v>152</v>
+      </c>
+      <c r="I42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
       </c>
       <c r="K42" t="s">
         <v>282</v>
@@ -3356,26 +3357,26 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B43" t="str">
         <f>CONCATENATE(K44,F43)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/ryans_narrative_02/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/merino_wool_top_picks/hero_01.jpg</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E43">
-        <v>1206</v>
+        <v>1290</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I43" s="1">
-        <v>1.6709167161671701E+104</v>
+        <v>1.49821698214987E+169</v>
       </c>
       <c r="J43" t="s">
         <v>9</v>
@@ -3386,26 +3387,26 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B44" t="str">
         <f>CONCATENATE(K45,F44)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/choosing_a_tire/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/5_road_essentials/hero_01.jpg</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E44">
-        <v>1209</v>
+        <v>1250</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1.53361534315357E+84</v>
+        <v>145</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
       </c>
       <c r="J44" t="s">
         <v>9</v>
@@ -3416,29 +3417,26 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B45" t="str">
         <f>CONCATENATE(K46,F45)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/new_vittoria_tires/Hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/tools_of_a_champ/Hero_02.jpg</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E45">
-        <v>1213</v>
+        <v>1235</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1.5336153431535701E+29</v>
+        <v>142</v>
       </c>
       <c r="J45">
-        <v>1622</v>
+        <v>2231</v>
       </c>
       <c r="K45" t="s">
         <v>282</v>
@@ -3476,26 +3474,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B47" t="str">
         <f>CONCATENATE(K48,F47)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/tools_of_a_champ/Hero_02.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/new_vittoria_tires/Hero.jpg</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E47">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.5336153431535701E+29</v>
       </c>
       <c r="J47">
-        <v>2231</v>
+        <v>1622</v>
       </c>
       <c r="K47" t="s">
         <v>282</v>
@@ -3503,26 +3504,26 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B48" t="str">
         <f>CONCATENATE(K49,F48)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/5_road_essentials/hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/choosing_a_tire/Hero_01.jpg</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E48">
-        <v>1250</v>
+        <v>1209</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.53361534315357E+84</v>
       </c>
       <c r="J48" t="s">
         <v>9</v>
@@ -3533,26 +3534,26 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B49" t="str">
         <f>CONCATENATE(K50,F49)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/merino_wool_top_picks/hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/ryans_narrative_02/Hero_01.jpg</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E49">
-        <v>1290</v>
+        <v>1206</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I49" s="1">
-        <v>1.49821698214987E+169</v>
+        <v>1.6709167161671701E+104</v>
       </c>
       <c r="J49" t="s">
         <v>9</v>
@@ -3563,29 +3564,26 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B50" t="str">
         <f>CONCATENATE(K51,F50)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/staff_winter_favorites/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/tools_of_the_tour/Hero_02.jpg</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E50">
-        <v>1293</v>
+        <v>1205</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
-      </c>
-      <c r="I50" t="s">
-        <v>154</v>
-      </c>
-      <c r="J50" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="J50">
+        <v>2231</v>
       </c>
       <c r="K50" t="s">
         <v>282</v>
@@ -3593,26 +3591,26 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B51" t="str">
         <f>CONCATENATE(K52,F51)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/staff_picks_saddle_bags/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/planning_a_route/Hero_01.jpg</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E51">
-        <v>1297</v>
+        <v>1203</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
-      </c>
-      <c r="I51" t="s">
-        <v>147</v>
+        <v>125</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.6709167161671699E+129</v>
       </c>
       <c r="J51" t="s">
         <v>9</v>
@@ -3623,29 +3621,29 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B52" t="str">
         <f>CONCATENATE(K53,F52)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/winter_gloves_for_road/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/pearl_izumi_promo/Hero_02.jpg</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E52">
-        <v>1298</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="I52" s="1">
-        <v>1.6982169851702599E+49</v>
-      </c>
-      <c r="J52" t="s">
-        <v>9</v>
+        <v>1.67091498215024E+239</v>
+      </c>
+      <c r="J52">
+        <v>1368</v>
       </c>
       <c r="K52" t="s">
         <v>282</v>
@@ -3653,26 +3651,26 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B53" t="str">
         <f>CONCATENATE(K54,F53)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/winter_gloves_for_gravel/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/ryans_narrative_01/Hero_01.jpg</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E53">
-        <v>1299</v>
+        <v>1198</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="I53" s="1">
-        <v>1.6982169851702599E+49</v>
+        <v>1.6709167161671701E+104</v>
       </c>
       <c r="J53" t="s">
         <v>9</v>
@@ -3683,23 +3681,26 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B54" t="str">
         <f>CONCATENATE(K55,F54)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless/Hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/bags_vs_racks/Hero_01.jpg</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="E54">
-        <v>1317</v>
+        <v>1192</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.4831167091671601E+184</v>
       </c>
       <c r="J54" t="s">
         <v>9</v>
@@ -3710,29 +3711,29 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B55" t="str">
         <f>CONCATENATE(K56,F55)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/winter_base_miles/hero_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/hammerhead_promo/Hero_01.jpg</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E55">
-        <v>1322</v>
+        <v>1186</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
-      </c>
-      <c r="I55" t="s">
-        <v>154</v>
-      </c>
-      <c r="J55" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.48421484317667E+24</v>
+      </c>
+      <c r="J55">
+        <v>4214</v>
       </c>
       <c r="K55" t="s">
         <v>282</v>
@@ -3740,29 +3741,29 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B56" t="str">
         <f>CONCATENATE(K57,F56)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/garmin_comparison/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/best_hydration/banner_03.jpg</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E56">
-        <v>1329</v>
+        <v>1184</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I56" s="1">
-        <v>1.4842148431766699E+29</v>
+        <v>1.7426174291744099E+79</v>
       </c>
       <c r="J56">
-        <v>1155</v>
+        <v>2680</v>
       </c>
       <c r="K56" t="s">
         <v>282</v>
@@ -3770,29 +3771,29 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B57" t="str">
         <f>CONCATENATE(K58,F57)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/garmin_vs_hammerhead/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/riding_in_heat/Hero_01.jpg</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="E57">
-        <v>1339</v>
+        <v>1181</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="I57" s="1">
-        <v>1.4842148431766699E+29</v>
+        <v>1.7426174271494001E+129</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="K57" t="s">
         <v>282</v>
@@ -3800,29 +3801,29 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="B58" t="str">
         <f>CONCATENATE(K59,F58)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/bwr_build/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/roval_wheelset/Hero_01.jpg</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="E58">
-        <v>1342</v>
+        <v>1180</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
-      </c>
-      <c r="I58" t="s">
-        <v>179</v>
+        <v>104</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.6570165711657499E+24</v>
       </c>
       <c r="J58">
-        <v>1430</v>
+        <v>2231</v>
       </c>
       <c r="K58" t="s">
         <v>282</v>
@@ -3830,29 +3831,29 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="B59" t="str">
         <f>CONCATENATE(K60,F59)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/bwr_build/hero_vid_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/century_nutrition/Hero_01.jpg</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="E59">
-        <v>1343</v>
+        <v>1178</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
-      </c>
-      <c r="I59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J59">
-        <v>1430</v>
+        <v>101</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.4875148771487801E+49</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
       </c>
       <c r="K59" t="s">
         <v>282</v>
@@ -3860,29 +3861,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B60" t="str">
         <f>CONCATENATE(K61,F60)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized_diverge_str/diverge_str_hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/bike_packing/Hero_01.jpg</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="E60">
-        <v>1359</v>
+        <v>1168</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="I60" s="1">
-        <v>1.4941287222872499E+59</v>
-      </c>
-      <c r="J60">
-        <v>2231</v>
+        <v>1.6709167161671701E+104</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
       </c>
       <c r="K60" t="s">
         <v>282</v>
@@ -3890,26 +3891,26 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B61" t="str">
         <f>CONCATENATE(K62,F61)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_01/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/nashbar/bikepacking101/nb_hero_02.jpg</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E61">
-        <v>1363</v>
+        <v>1161</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="I61" s="1">
-        <v>1.53461534715348E+94</v>
+        <v>1.6709167161671701E+104</v>
       </c>
       <c r="J61" t="s">
         <v>9</v>
@@ -3920,26 +3921,26 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="B62" t="str">
         <f>CONCATENATE(K63,F62)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_02/hero_image.jpg</v>
+        <v>https://images.amain.com/images/newsletter/2020-07-07/bikepacking2/touring.jpg</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="E62">
-        <v>1364</v>
+        <v>1160</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="I62" s="1">
-        <v>1.53461534715348E+94</v>
+        <v>1.6709167161671701E+104</v>
       </c>
       <c r="J62" t="s">
         <v>9</v>
@@ -3950,26 +3951,26 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="B63" t="str">
         <f>CONCATENATE(K64,F63)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/What_is_gravel_biking/part_03/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/nashbar/bikepacking101/hero_clear.jpg</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="E63">
-        <v>1365</v>
+        <v>1159</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="I63" s="1">
-        <v>1.5346153471534802E+79</v>
+        <v>1.6709167161671701E+104</v>
       </c>
       <c r="J63" t="s">
         <v>9</v>
@@ -3980,29 +3981,29 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="B64" t="str">
         <f>CONCATENATE(K65,F64)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/packing_for_tahiti/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/Hero_02.jpg</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="E64">
-        <v>1394</v>
+        <v>1131</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="I64" s="1">
-        <v>1.4931149321493299E+29</v>
-      </c>
-      <c r="J64" t="s">
-        <v>9</v>
+        <v>1.53361534315357E+134</v>
+      </c>
+      <c r="J64">
+        <v>2129</v>
       </c>
       <c r="K64" t="s">
         <v>282</v>
@@ -4010,26 +4011,26 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B65" t="str">
         <f>CONCATENATE(K66,F65)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/nutrition_for_tahiti/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/categories/tubeless_hero_01.jpg</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="E65">
-        <v>1395</v>
+        <v>1125</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="I65" s="1">
-        <v>1.48311487514877E+39</v>
+        <v>1.53361534315357E+99</v>
       </c>
       <c r="J65" t="s">
         <v>9</v>
@@ -4040,29 +4041,29 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="B66" t="str">
         <f>CONCATENATE(K67,F66)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/buyers_guide/hero_image_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/dyna_plug_01.jpg</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="E66">
-        <v>1396</v>
+        <v>1122</v>
       </c>
       <c r="F66" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="I66" s="1">
-        <v>1.5230168172745401E+69</v>
+        <v>1.53361534315357E+134</v>
       </c>
       <c r="J66">
-        <v>1509</v>
+        <v>2129</v>
       </c>
       <c r="K66" t="s">
         <v>282</v>
@@ -4070,29 +4071,29 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="B67" t="str">
         <f>CONCATENATE(K68,F67)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/roval_wheels_buyers_guide/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/dynaplug/dyna_plug_02.jpg</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="E67">
-        <v>1397</v>
+        <v>1116</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="I67" s="1">
-        <v>1.51401657016571E+29</v>
+        <v>1.53361534315357E+134</v>
       </c>
       <c r="J67">
-        <v>2231</v>
+        <v>2129</v>
       </c>
       <c r="K67" t="s">
         <v>282</v>
@@ -4100,29 +4101,29 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
         <f>CONCATENATE(K69,F68)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/roval_road_wheels_guide/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/Riding%20in%20a%20new%20area%20-%20By%20Claire/Hero_02.jpg</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="E68">
-        <v>1398</v>
+        <v>1084</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="I68" s="1">
-        <v>1.51401657016571E+29</v>
-      </c>
-      <c r="J68">
-        <v>2231</v>
+        <v>1.48421484317667E+24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>9</v>
       </c>
       <c r="K68" t="s">
         <v>282</v>
@@ -4130,29 +4131,29 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="B69" t="str">
         <f>CONCATENATE(K70,F69)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/Gatorskin_Tubeless/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized_gravel_tires/Hero.jpg</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="E69">
-        <v>1399</v>
+        <v>884</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="I69" s="1">
-        <v>1.53361534315357E+39</v>
+        <v>1.53361534315351E+24</v>
       </c>
       <c r="J69">
-        <v>1046</v>
+        <v>2231</v>
       </c>
       <c r="K69" t="s">
         <v>282</v>
@@ -4160,29 +4161,29 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="B70" t="str">
         <f>CONCATENATE(K71,F70)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/The_Science_of_Cold_Tires/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/hammerhead/Hero_01.jpg</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="E70">
-        <v>1400</v>
+        <v>881</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="I70" s="1">
-        <v>1.53361534315357E+289</v>
-      </c>
-      <c r="J70" t="s">
-        <v>9</v>
+        <v>1.48421484317667E+24</v>
+      </c>
+      <c r="J70">
+        <v>4214</v>
       </c>
       <c r="K70" t="s">
         <v>282</v>
@@ -4190,26 +4191,26 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="B71" t="str">
         <f>CONCATENATE(K72,F71)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/Gravel_Bike_for_Winter/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/spd_pedals_cleats/Hero.jpg</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="E71">
-        <v>1401</v>
+        <v>876</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="I71" s="1">
-        <v>1.5346153471534799E+39</v>
+        <v>1.5051150621716699E+234</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
@@ -4220,26 +4221,26 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="B72" t="str">
         <f>CONCATENATE(K73,F72)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/First_Century_Mistakes/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/summer_layering/Hero.jpg</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="E72">
-        <v>1402</v>
+        <v>869</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="I72" s="1">
-        <v>1.4875148771487801E+49</v>
+        <v>1.49821684314987E+94</v>
       </c>
       <c r="J72" t="s">
         <v>9</v>
@@ -4250,26 +4251,26 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="B73" t="str">
         <f>CONCATENATE(K74,F73)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/First_Century_Training/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/nutrition/Hero.jpg</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="E73">
-        <v>1403</v>
+        <v>859</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="I73" s="1">
-        <v>1.4875148771487801E+49</v>
+        <v>1.4875148771487799E+74</v>
       </c>
       <c r="J73" t="s">
         <v>9</v>
@@ -4280,26 +4281,26 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="B74" t="str">
         <f>CONCATENATE(K75,F74)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/century_bike_check/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/gravel_tires_pb/Hero_01.jpg</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="E74">
-        <v>1404</v>
+        <v>850</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="I74" s="1">
-        <v>1.51041510515107E+99</v>
+        <v>1.5343153461534699E+24</v>
       </c>
       <c r="J74" t="s">
         <v>9</v>
@@ -4310,29 +4311,29 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="B75" t="str">
         <f>CONCATENATE(K76,F75)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/shimano_part_weights/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/shoes_and_pedals/Hero_01.jpg</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="E75">
-        <v>1405</v>
+        <v>844</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
-      </c>
-      <c r="I75" t="s">
-        <v>231</v>
-      </c>
-      <c r="J75">
-        <v>1468</v>
+        <v>54</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1.51981520015202E+194</v>
+      </c>
+      <c r="J75" t="s">
+        <v>9</v>
       </c>
       <c r="K75" t="s">
         <v>282</v>
@@ -4340,26 +4341,26 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="B76" t="str">
         <f>CONCATENATE(K77,F76)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/best_mini_pump/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/mtb_tires_pb/Hero_mtb.jpg</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="E76">
-        <v>1406</v>
+        <v>840</v>
       </c>
       <c r="F76" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I76" s="1">
-        <v>1.5104174761747699E+69</v>
+        <v>1.5336153431535101E+29</v>
       </c>
       <c r="J76" t="s">
         <v>9</v>
@@ -4370,26 +4371,26 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="B77" t="str">
         <f>CONCATENATE(K78,F77)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/biking_at_night/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/saddles/Hero_01.jpg</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="E77">
-        <v>1407</v>
+        <v>831</v>
       </c>
       <c r="F77" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="I77" s="1">
-        <v>1.48311671415141E+114</v>
+        <v>1.52091521315212E+39</v>
       </c>
       <c r="J77" t="s">
         <v>9</v>
@@ -4400,29 +4401,29 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="B78" t="str">
         <f>CONCATENATE(K79,F78)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/best_garmin_watches/hero.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/grips_tape/Hero_01.jpg</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
       <c r="E78">
-        <v>1450</v>
+        <v>811</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="I78" s="1">
-        <v>1.4831148421484301E+139</v>
-      </c>
-      <c r="J78">
-        <v>1155</v>
+        <v>165421654415140</v>
+      </c>
+      <c r="J78" t="s">
+        <v>9</v>
       </c>
       <c r="K78" t="s">
         <v>282</v>
@@ -4430,26 +4431,26 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="B79" t="str">
         <f>CONCATENATE(K80,F79)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/freehub_bodies/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/chains/Hero_01.jpg</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="E79">
-        <v>1451</v>
+        <v>808</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="I79" s="1">
-        <v>1.5140165701657099E+119</v>
+        <v>1.51641641617713E+114</v>
       </c>
       <c r="J79" t="s">
         <v>9</v>
@@ -4460,29 +4461,29 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="B80" t="str">
         <f>CONCATENATE(K81,F80)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/why_specialized/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/helmets/Hero_01_pb.jpg</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="E80">
-        <v>1462</v>
+        <v>761</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" t="s">
-        <v>247</v>
-      </c>
-      <c r="J80">
-        <v>2231</v>
+        <v>39</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1.5010171961501799E+254</v>
+      </c>
+      <c r="J80" t="s">
+        <v>9</v>
       </c>
       <c r="K80" t="s">
         <v>282</v>
@@ -4490,29 +4491,29 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="B81" t="str">
         <f>CONCATENATE(K82,F81)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized_bike_tiers/hero_image.jpg</v>
+        <v>https://images.amain.com/images/sites/performancebike/contentPages/socks/Hero_02.jpg</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="E81">
-        <v>1463</v>
+        <v>755</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
-      </c>
-      <c r="I81" t="s">
-        <v>247</v>
-      </c>
-      <c r="J81">
-        <v>2231</v>
+        <v>36</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1.6982169841698501E+54</v>
+      </c>
+      <c r="J81" t="s">
+        <v>9</v>
       </c>
       <c r="K81" t="s">
         <v>282</v>
@@ -4520,29 +4521,29 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="B82" t="str">
         <f>CONCATENATE(K83,F82)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/all_about_spec_saddles/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless_part_01/Hero_01.jpg</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="E82">
-        <v>1464</v>
+        <v>726</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="I82" s="1">
-        <v>1.5140152091521299E+54</v>
-      </c>
-      <c r="J82">
-        <v>2231</v>
+        <v>1.53361534315357E+74</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
       </c>
       <c r="K82" t="s">
         <v>282</v>
@@ -4550,26 +4551,26 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="B83" t="str">
         <f>CONCATENATE(K84,F83)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/understanding_saddle_rails/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/road_tires/hero_02.jpg</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="E83">
-        <v>1465</v>
+        <v>725</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I83" s="1">
-        <v>1.5140152091521301E+99</v>
+        <v>1.5336153431535701E+29</v>
       </c>
       <c r="J83" t="s">
         <v>9</v>
@@ -4580,26 +4581,26 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="B84" t="str">
         <f>CONCATENATE(K85,F84)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/3d_saddles/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/clipless/img/look-hero.jpg</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="E84">
-        <v>1466</v>
+        <v>718</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I84" s="1">
-        <v>1.5140152091521299E+54</v>
+        <v>1.51981520015201E+44</v>
       </c>
       <c r="J84" t="s">
         <v>9</v>
@@ -4610,29 +4611,29 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="B85" t="str">
         <f>CONCATENATE(K86,F85)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/favorite_3d_saddles/hero_image_01.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized/img/BRD-3834-BodyGeometry-Hero-Retul.jpg</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="E85">
-        <v>1470</v>
+        <v>712</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1">
-        <v>1.5140152091521299E+54</v>
-      </c>
-      <c r="J85" t="s">
-        <v>263</v>
+        <v>1.71041710517111E+164</v>
+      </c>
+      <c r="J85">
+        <v>2231</v>
       </c>
       <c r="K85" t="s">
         <v>282</v>
@@ -4640,29 +4641,29 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="B86" t="str">
         <f>CONCATENATE(K87,F86)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/castelli_jersey_guide/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/specialized/img/Angi-v2-Hero-ANGi_2000x980.jpg</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="E86">
-        <v>1473</v>
+        <v>711</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="I86" s="1">
-        <v>1.4982150242868701E+144</v>
+        <v>1.5010171961501801E+44</v>
       </c>
       <c r="J86">
-        <v>3208</v>
+        <v>2231</v>
       </c>
       <c r="K86" t="s">
         <v>282</v>
@@ -4670,29 +4671,29 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="B87" t="str">
         <f>CONCATENATE(K88,F87)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/pearl_izumi_clothing/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/lights_promo/Hero_01.jpg</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>548</v>
+        <v>466</v>
       </c>
       <c r="E87">
-        <v>1474</v>
+        <v>691</v>
       </c>
       <c r="F87" t="s">
-        <v>268</v>
-      </c>
-      <c r="I87" t="s">
-        <v>270</v>
-      </c>
-      <c r="J87">
-        <v>1368</v>
+        <v>18</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1.5141176951769599E+104</v>
+      </c>
+      <c r="J87" t="s">
+        <v>9</v>
       </c>
       <c r="K87" t="s">
         <v>282</v>
@@ -4700,29 +4701,29 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="B88" t="str">
         <f>CONCATENATE(K89,F88)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/specialized_sl8/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/winter_layering/Hero_01.jpg</v>
       </c>
       <c r="C88" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
       <c r="E88">
-        <v>1475</v>
+        <v>690</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.4941287222872399E+54</v>
-      </c>
-      <c r="J88">
-        <v>2231</v>
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>9</v>
       </c>
       <c r="K88" t="s">
         <v>282</v>
@@ -4730,29 +4731,29 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="B89" t="str">
         <f>CONCATENATE(K90,F89)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/spec_bike_comp/hero_image.jpg</v>
+        <v>https://images.amain.com/images/contentpages/performancebike/why_go_tubeless/Hero_01.jpg</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>550</v>
+        <v>464</v>
       </c>
       <c r="E89">
-        <v>1476</v>
+        <v>602</v>
       </c>
       <c r="F89" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="I89" s="1">
-        <v>1.4941287221497301E+64</v>
-      </c>
-      <c r="J89">
-        <v>2231</v>
+        <v>1.53361534315357E+74</v>
+      </c>
+      <c r="J89" t="s">
+        <v>9</v>
       </c>
       <c r="K89" t="s">
         <v>282</v>
@@ -4760,35 +4761,38 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="B90" t="str">
-        <f>CONCATENATE(K90,F90)</f>
-        <v>https://images.amain.com/images/contentpages/performancebike/D12_vs_Shimano/hero_image.jpg</v>
+        <f>CONCATENATE(K91,F90)</f>
+        <v>contentpages/performancebike/repairs/Hero_03.jpg</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="E90">
-        <v>1480</v>
+        <v>601</v>
       </c>
       <c r="F90" t="s">
-        <v>278</v>
-      </c>
-      <c r="I90" t="s">
-        <v>280</v>
+        <v>7</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1.51051510715106E+34</v>
       </c>
       <c r="J90" t="s">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="K90" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
+    <sortCondition descending="1" ref="E2:E90"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7221,4 +7225,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B48878-A15A-1043-B8E6-58F0D9235AC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>